--- a/01 文档库/需求.xlsx
+++ b/01 文档库/需求.xlsx
@@ -267,14 +267,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +573,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -584,7 +584,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
@@ -595,7 +595,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -613,8 +613,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
@@ -622,14 +622,14 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -638,13 +638,13 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -662,7 +662,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -671,10 +671,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
@@ -682,69 +682,69 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
@@ -752,10 +752,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="135">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -766,13 +766,13 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
@@ -780,13 +780,13 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
@@ -794,10 +794,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>27</v>
       </c>
